--- a/data/2020-07-22/texas.xlsx
+++ b/data/2020-07-22/texas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dshs4dvchsfs01.dshs.state.tx.us\CHS Share\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F8D043E-4AF4-4481-B135-FAE4CAC73CF0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A2A6474-7908-4FB3-9BF6-096826B41C00}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="344">
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 7/21 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="342">
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 7/22 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -815,7 +815,10 @@
     <t>Probable cases are not included in the total case numbers</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 7/21 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 7/22 at 10:45AM CST</t>
+  </si>
+  <si>
+    <t>DISCLAIMER: All data are provisional and are subject to change.</t>
   </si>
   <si>
     <t>F1</t>
@@ -857,7 +860,7 @@
     <t>***</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 7/21 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 7/22 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -869,7 +872,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 7/21 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 7/22 at 3:00PM CST</t>
   </si>
   <si>
     <t>Viral Tests</t>
@@ -910,7 +913,7 @@
     <t>*Average of previous 7 days</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 7/21 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 7/22 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -931,7 +934,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Number of COVID-19 Antibody Tests in Texas as of 7/20 at 3:00PM CST</t>
+    <t>Number of COVID-19 Antibody Tests in Texas as of 7/21 at 3:00PM CST</t>
   </si>
   <si>
     <t>Antibody Tests</t>
@@ -943,7 +946,7 @@
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 7/21 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 7/22 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -964,7 +967,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 7/21 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 7/22 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -973,7 +976,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 7/21 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 7/22 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -1028,10 +1031,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          28,606</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 7/21 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          29,588</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 7/22 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -1043,7 +1046,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 7/21 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 7/22 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -1064,25 +1067,16 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 7/21 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Completed investigations received by DSHS =          758</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Fatalities as of 7/21 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 7/21 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>* The total reported cases for 6/16/2020 include 2,622 new cases and an additional 1,476 cases that were previously diagnosed among Texas Department of Criminal Justice inmates.</t>
-  </si>
-  <si>
-    <t>** On 7/15/2020, statewide and Bexar County totals were updated to remove 3,484 probable cases that San Antonio Metro Health District had previously included in its totals.</t>
-  </si>
-  <si>
-    <t>*** Texas reported 10,256 new confirmed COVID-19 cases for Friday, July 17. The statewide total has been updated to include approximately 5,000 cases reported by the San Antonio Metro Health District stemming from a laboratory reporting backlog.</t>
+    <t>Age of Confirmed Fatalities as of 7/22 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Completed investigations received by DSHS =          764</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Fatalities as of 7/22 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 7/22 at 9:30 AM CST</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1092,7 @@
     <numFmt numFmtId="175" formatCode="##0"/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
@@ -1120,12 +1114,6 @@
       <sz val="9.5"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9.5"/>
-      <color rgb="FF112277"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1196,7 +1184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1253,9 +1241,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1394,6 +1379,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -1427,7 +1413,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>2051</v>
+        <v>2062</v>
       </c>
       <c r="C3" s="4">
         <v>4</v>
@@ -1438,7 +1424,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -1449,10 +1435,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>1000</v>
+        <v>1234</v>
       </c>
       <c r="C5" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1460,7 +1446,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="4">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -1493,10 +1479,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="C9" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1504,7 +1490,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -1526,7 +1512,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
@@ -1537,7 +1523,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>1046</v>
+        <v>1056</v>
       </c>
       <c r="C13" s="4">
         <v>12</v>
@@ -1570,7 +1556,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>2788</v>
+        <v>2875</v>
       </c>
       <c r="C16" s="4">
         <v>18</v>
@@ -1581,10 +1567,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>26861</v>
+        <v>27925</v>
       </c>
       <c r="C17" s="4">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1614,7 +1600,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="4">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -1625,7 +1611,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="C21" s="4">
         <v>17</v>
@@ -1636,7 +1622,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>4896</v>
+        <v>5068</v>
       </c>
       <c r="C22" s="4">
         <v>34</v>
@@ -1647,7 +1633,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>3407</v>
+        <v>3442</v>
       </c>
       <c r="C23" s="4">
         <v>42</v>
@@ -1680,7 +1666,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="4">
         <v>0</v>
@@ -1691,7 +1677,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="4">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C27" s="4">
         <v>13</v>
@@ -1702,7 +1688,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -1713,7 +1699,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="C29" s="4">
         <v>6</v>
@@ -1724,7 +1710,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>870</v>
+        <v>904</v>
       </c>
       <c r="C30" s="4">
         <v>7</v>
@@ -1735,7 +1721,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
@@ -1746,7 +1732,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C32" s="4">
         <v>2</v>
@@ -1757,10 +1743,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>6213</v>
+        <v>6520</v>
       </c>
       <c r="C33" s="4">
-        <v>111</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1768,7 +1754,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="4">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C34" s="4">
         <v>2</v>
@@ -1790,7 +1776,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C36" s="4">
         <v>3</v>
@@ -1812,7 +1798,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>735</v>
+        <v>756</v>
       </c>
       <c r="C38" s="4">
         <v>5</v>
@@ -1823,7 +1809,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="4">
-        <v>516</v>
+        <v>583</v>
       </c>
       <c r="C39" s="4">
         <v>2</v>
@@ -1834,7 +1820,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C40" s="4">
         <v>0</v>
@@ -1845,7 +1831,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C41" s="4">
         <v>0</v>
@@ -1867,7 +1853,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C43" s="4">
         <v>1</v>
@@ -1889,10 +1875,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>5456</v>
+        <v>5614</v>
       </c>
       <c r="C45" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1911,7 +1897,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -1922,10 +1908,10 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>1380</v>
+        <v>1406</v>
       </c>
       <c r="C48" s="4">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1933,7 +1919,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
@@ -1944,7 +1930,7 @@
         <v>51</v>
       </c>
       <c r="B50" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C50" s="4">
         <v>0</v>
@@ -1955,7 +1941,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="4">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -1966,7 +1952,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="C52" s="4">
         <v>3</v>
@@ -1999,7 +1985,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="4">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C55" s="4">
         <v>1</v>
@@ -2010,7 +1996,7 @@
         <v>57</v>
       </c>
       <c r="B56" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C56" s="4">
         <v>3</v>
@@ -2032,7 +2018,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C58" s="4">
         <v>1</v>
@@ -2043,10 +2029,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>42292</v>
+        <v>43026</v>
       </c>
       <c r="C59" s="4">
-        <v>526</v>
+        <v>537</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2054,7 +2040,7 @@
         <v>61</v>
       </c>
       <c r="B60" s="4">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C60" s="4">
         <v>1</v>
@@ -2065,10 +2051,10 @@
         <v>62</v>
       </c>
       <c r="B61" s="4">
-        <v>307</v>
+        <v>442</v>
       </c>
       <c r="C61" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2076,10 +2062,10 @@
         <v>63</v>
       </c>
       <c r="B62" s="4">
-        <v>468</v>
+        <v>486</v>
       </c>
       <c r="C62" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2087,7 +2073,7 @@
         <v>64</v>
       </c>
       <c r="B63" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C63" s="4">
         <v>0</v>
@@ -2098,7 +2084,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>5098</v>
+        <v>5316</v>
       </c>
       <c r="C64" s="4">
         <v>45</v>
@@ -2120,7 +2106,7 @@
         <v>67</v>
       </c>
       <c r="B66" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C66" s="4">
         <v>0</v>
@@ -2131,7 +2117,7 @@
         <v>68</v>
       </c>
       <c r="B67" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C67" s="4">
         <v>0</v>
@@ -2142,7 +2128,7 @@
         <v>69</v>
       </c>
       <c r="B68" s="4">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C68" s="4">
         <v>0</v>
@@ -2175,7 +2161,7 @@
         <v>72</v>
       </c>
       <c r="B71" s="4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C71" s="4">
         <v>0</v>
@@ -2186,10 +2172,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>12041</v>
+        <v>12297</v>
       </c>
       <c r="C72" s="4">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2197,7 +2183,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="4">
-        <v>2090</v>
+        <v>2129</v>
       </c>
       <c r="C73" s="4">
         <v>21</v>
@@ -2208,7 +2194,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="4">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="C74" s="4">
         <v>1</v>
@@ -2219,7 +2205,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="4">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C75" s="4">
         <v>0</v>
@@ -2230,7 +2216,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="4">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C76" s="4">
         <v>8</v>
@@ -2241,10 +2227,10 @@
         <v>78</v>
       </c>
       <c r="B77" s="4">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="C77" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2252,7 +2238,7 @@
         <v>79</v>
       </c>
       <c r="B78" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C78" s="4">
         <v>1</v>
@@ -2274,7 +2260,7 @@
         <v>81</v>
       </c>
       <c r="B80" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80" s="4">
         <v>0</v>
@@ -2285,10 +2271,10 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>5995</v>
+        <v>6130</v>
       </c>
       <c r="C81" s="4">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2296,7 +2282,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="4">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C82" s="4">
         <v>1</v>
@@ -2307,7 +2293,7 @@
         <v>84</v>
       </c>
       <c r="B83" s="4">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
@@ -2318,7 +2304,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="4">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C84" s="4">
         <v>1</v>
@@ -2329,7 +2315,7 @@
         <v>86</v>
       </c>
       <c r="B85" s="4">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C85" s="4">
         <v>0</v>
@@ -2340,7 +2326,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>7354</v>
+        <v>7479</v>
       </c>
       <c r="C86" s="4">
         <v>66</v>
@@ -2362,7 +2348,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="4">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C88" s="4">
         <v>0</v>
@@ -2384,7 +2370,7 @@
         <v>91</v>
       </c>
       <c r="B90" s="4">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C90" s="4">
         <v>0</v>
@@ -2395,10 +2381,10 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>476</v>
+        <v>499</v>
       </c>
       <c r="C91" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2406,7 +2392,7 @@
         <v>93</v>
       </c>
       <c r="B92" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C92" s="4">
         <v>4</v>
@@ -2417,7 +2403,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>862</v>
+        <v>880</v>
       </c>
       <c r="C93" s="4">
         <v>8</v>
@@ -2428,7 +2414,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>1093</v>
+        <v>1122</v>
       </c>
       <c r="C94" s="4">
         <v>15</v>
@@ -2439,7 +2425,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>739</v>
+        <v>766</v>
       </c>
       <c r="C95" s="4">
         <v>2</v>
@@ -2450,10 +2436,10 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>1364</v>
+        <v>1412</v>
       </c>
       <c r="C96" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2461,10 +2447,10 @@
         <v>98</v>
       </c>
       <c r="B97" s="4">
-        <v>934</v>
+        <v>974</v>
       </c>
       <c r="C97" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2472,7 +2458,7 @@
         <v>99</v>
       </c>
       <c r="B98" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C98" s="4">
         <v>1</v>
@@ -2483,7 +2469,7 @@
         <v>100</v>
       </c>
       <c r="B99" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C99" s="4">
         <v>1</v>
@@ -2494,7 +2480,7 @@
         <v>101</v>
       </c>
       <c r="B100" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C100" s="4">
         <v>2</v>
@@ -2505,7 +2491,7 @@
         <v>102</v>
       </c>
       <c r="B101" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C101" s="4">
         <v>0</v>
@@ -2516,7 +2502,7 @@
         <v>103</v>
       </c>
       <c r="B102" s="4">
-        <v>568</v>
+        <v>624</v>
       </c>
       <c r="C102" s="4">
         <v>5</v>
@@ -2527,10 +2513,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>57095</v>
+        <v>58480</v>
       </c>
       <c r="C103" s="4">
-        <v>544</v>
+        <v>560</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2538,10 +2524,10 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C104" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2549,7 +2535,7 @@
         <v>106</v>
       </c>
       <c r="B105" s="4">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C105" s="4">
         <v>2</v>
@@ -2571,10 +2557,10 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>3979</v>
+        <v>4004</v>
       </c>
       <c r="C107" s="4">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2582,7 +2568,7 @@
         <v>109</v>
       </c>
       <c r="B108" s="4">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C108" s="4">
         <v>0</v>
@@ -2593,7 +2579,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="4">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="C109" s="4">
         <v>5</v>
@@ -2604,10 +2590,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>12787</v>
+        <v>13126</v>
       </c>
       <c r="C110" s="4">
-        <v>318</v>
+        <v>367</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2615,7 +2601,7 @@
         <v>112</v>
       </c>
       <c r="B111" s="4">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C111" s="4">
         <v>2</v>
@@ -2626,10 +2612,10 @@
         <v>113</v>
       </c>
       <c r="B112" s="4">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C112" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2637,7 +2623,7 @@
         <v>114</v>
       </c>
       <c r="B113" s="4">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="C113" s="4">
         <v>5</v>
@@ -2648,7 +2634,7 @@
         <v>115</v>
       </c>
       <c r="B114" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C114" s="4">
         <v>0</v>
@@ -2659,7 +2645,7 @@
         <v>116</v>
       </c>
       <c r="B115" s="4">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C115" s="4">
         <v>0</v>
@@ -2670,7 +2656,7 @@
         <v>117</v>
       </c>
       <c r="B116" s="4">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C116" s="4">
         <v>2</v>
@@ -2692,7 +2678,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="4">
-        <v>850</v>
+        <v>898</v>
       </c>
       <c r="C118" s="4">
         <v>8</v>
@@ -2703,7 +2689,7 @@
         <v>120</v>
       </c>
       <c r="B119" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C119" s="4">
         <v>1</v>
@@ -2725,7 +2711,7 @@
         <v>122</v>
       </c>
       <c r="B121" s="4">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C121" s="4">
         <v>0</v>
@@ -2736,7 +2722,7 @@
         <v>123</v>
       </c>
       <c r="B122" s="4">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C122" s="4">
         <v>1</v>
@@ -2769,10 +2755,10 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>4493</v>
+        <v>4622</v>
       </c>
       <c r="C125" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2780,7 +2766,7 @@
         <v>127</v>
       </c>
       <c r="B126" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C126" s="4">
         <v>0</v>
@@ -2791,7 +2777,7 @@
         <v>128</v>
       </c>
       <c r="B127" s="4">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
@@ -2802,7 +2788,7 @@
         <v>129</v>
       </c>
       <c r="B128" s="4">
-        <v>1057</v>
+        <v>1085</v>
       </c>
       <c r="C128" s="4">
         <v>7</v>
@@ -2813,7 +2799,7 @@
         <v>130</v>
       </c>
       <c r="B129" s="4">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -2824,7 +2810,7 @@
         <v>131</v>
       </c>
       <c r="B130" s="4">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C130" s="4">
         <v>0</v>
@@ -2835,7 +2821,7 @@
         <v>132</v>
       </c>
       <c r="B131" s="4">
-        <v>1279</v>
+        <v>1317</v>
       </c>
       <c r="C131" s="4">
         <v>5</v>
@@ -2846,7 +2832,7 @@
         <v>133</v>
       </c>
       <c r="B132" s="4">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C132" s="4">
         <v>0</v>
@@ -2879,7 +2865,7 @@
         <v>136</v>
       </c>
       <c r="B135" s="4">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C135" s="4">
         <v>1</v>
@@ -2912,7 +2898,7 @@
         <v>139</v>
       </c>
       <c r="B138" s="4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C138" s="4">
         <v>0</v>
@@ -2923,7 +2909,7 @@
         <v>140</v>
       </c>
       <c r="B139" s="4">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C139" s="4">
         <v>2</v>
@@ -2945,7 +2931,7 @@
         <v>142</v>
       </c>
       <c r="B141" s="4">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C141" s="4">
         <v>0</v>
@@ -2967,10 +2953,10 @@
         <v>144</v>
       </c>
       <c r="B143" s="4">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C143" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2978,7 +2964,7 @@
         <v>145</v>
       </c>
       <c r="B144" s="4">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C144" s="4">
         <v>0</v>
@@ -2989,7 +2975,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="4">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="C145" s="4">
         <v>1</v>
@@ -3000,7 +2986,7 @@
         <v>147</v>
       </c>
       <c r="B146" s="4">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C146" s="4">
         <v>3</v>
@@ -3011,7 +2997,7 @@
         <v>148</v>
       </c>
       <c r="B147" s="4">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C147" s="4">
         <v>0</v>
@@ -3022,7 +3008,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
@@ -3033,7 +3019,7 @@
         <v>150</v>
       </c>
       <c r="B149" s="4">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C149" s="4">
         <v>1</v>
@@ -3066,7 +3052,7 @@
         <v>153</v>
       </c>
       <c r="B152" s="4">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C152" s="4">
         <v>0</v>
@@ -3088,10 +3074,10 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>4556</v>
+        <v>4656</v>
       </c>
       <c r="C154" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3099,7 +3085,7 @@
         <v>156</v>
       </c>
       <c r="B155" s="4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C155" s="4">
         <v>3</v>
@@ -3110,7 +3096,7 @@
         <v>157</v>
       </c>
       <c r="B156" s="4">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
@@ -3124,7 +3110,7 @@
         <v>111</v>
       </c>
       <c r="C157" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3132,7 +3118,7 @@
         <v>159</v>
       </c>
       <c r="B158" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C158" s="4">
         <v>1</v>
@@ -3154,7 +3140,7 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>487</v>
+        <v>513</v>
       </c>
       <c r="C160" s="4">
         <v>5</v>
@@ -3165,10 +3151,10 @@
         <v>162</v>
       </c>
       <c r="B161" s="4">
-        <v>1169</v>
+        <v>1283</v>
       </c>
       <c r="C161" s="4">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3176,7 +3162,7 @@
         <v>163</v>
       </c>
       <c r="B162" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C162" s="4">
         <v>0</v>
@@ -3187,10 +3173,10 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>3472</v>
+        <v>3575</v>
       </c>
       <c r="C163" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3209,10 +3195,10 @@
         <v>166</v>
       </c>
       <c r="B165" s="4">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C165" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3220,7 +3206,7 @@
         <v>167</v>
       </c>
       <c r="B166" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C166" s="4">
         <v>0</v>
@@ -3231,7 +3217,7 @@
         <v>168</v>
       </c>
       <c r="B167" s="4">
-        <v>1199</v>
+        <v>1249</v>
       </c>
       <c r="C167" s="4">
         <v>29</v>
@@ -3242,7 +3228,7 @@
         <v>169</v>
       </c>
       <c r="B168" s="4">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="C168" s="4">
         <v>2</v>
@@ -3253,7 +3239,7 @@
         <v>170</v>
       </c>
       <c r="B169" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C169" s="4">
         <v>0</v>
@@ -3264,7 +3250,7 @@
         <v>171</v>
       </c>
       <c r="B170" s="4">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C170" s="4">
         <v>0</v>
@@ -3286,7 +3272,7 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>5067</v>
+        <v>5169</v>
       </c>
       <c r="C172" s="4">
         <v>49</v>
@@ -3297,7 +3283,7 @@
         <v>174</v>
       </c>
       <c r="B173" s="4">
-        <v>951</v>
+        <v>961</v>
       </c>
       <c r="C173" s="4">
         <v>15</v>
@@ -3308,7 +3294,7 @@
         <v>175</v>
       </c>
       <c r="B174" s="4">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C174" s="4">
         <v>0</v>
@@ -3330,7 +3316,7 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>743</v>
+        <v>793</v>
       </c>
       <c r="C176" s="4">
         <v>35</v>
@@ -3341,7 +3327,7 @@
         <v>178</v>
       </c>
       <c r="B177" s="4">
-        <v>596</v>
+        <v>626</v>
       </c>
       <c r="C177" s="4">
         <v>10</v>
@@ -3363,7 +3349,7 @@
         <v>180</v>
       </c>
       <c r="B179" s="4">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C179" s="4">
         <v>1</v>
@@ -3374,10 +3360,10 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>8816</v>
+        <v>9105</v>
       </c>
       <c r="C180" s="4">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3385,7 +3371,7 @@
         <v>182</v>
       </c>
       <c r="B181" s="4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C181" s="4">
         <v>2</v>
@@ -3407,10 +3393,10 @@
         <v>184</v>
       </c>
       <c r="B183" s="4">
-        <v>766</v>
+        <v>784</v>
       </c>
       <c r="C183" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3418,7 +3404,7 @@
         <v>185</v>
       </c>
       <c r="B184" s="4">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C184" s="4">
         <v>2</v>
@@ -3429,7 +3415,7 @@
         <v>186</v>
       </c>
       <c r="B185" s="4">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C185" s="4">
         <v>24</v>
@@ -3440,7 +3426,7 @@
         <v>187</v>
       </c>
       <c r="B186" s="4">
-        <v>743</v>
+        <v>754</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
@@ -3451,7 +3437,7 @@
         <v>188</v>
       </c>
       <c r="B187" s="4">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C187" s="4">
         <v>8</v>
@@ -3462,7 +3448,7 @@
         <v>189</v>
       </c>
       <c r="B188" s="4">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C188" s="4">
         <v>1</v>
@@ -3473,7 +3459,7 @@
         <v>190</v>
       </c>
       <c r="B189" s="4">
-        <v>414</v>
+        <v>533</v>
       </c>
       <c r="C189" s="4">
         <v>1</v>
@@ -3484,7 +3470,7 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>3212</v>
+        <v>3263</v>
       </c>
       <c r="C190" s="4">
         <v>41</v>
@@ -3506,7 +3492,7 @@
         <v>193</v>
       </c>
       <c r="B192" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C192" s="4">
         <v>1</v>
@@ -3517,10 +3503,10 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>1307</v>
+        <v>1355</v>
       </c>
       <c r="C193" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3531,7 +3517,7 @@
         <v>51</v>
       </c>
       <c r="C194" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3539,7 +3525,7 @@
         <v>196</v>
       </c>
       <c r="B195" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C195" s="4">
         <v>0</v>
@@ -3550,7 +3536,7 @@
         <v>197</v>
       </c>
       <c r="B196" s="4">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C196" s="4">
         <v>12</v>
@@ -3561,7 +3547,7 @@
         <v>198</v>
       </c>
       <c r="B197" s="4">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C197" s="4">
         <v>2</v>
@@ -3572,7 +3558,7 @@
         <v>199</v>
       </c>
       <c r="B198" s="4">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C198" s="4">
         <v>0</v>
@@ -3594,7 +3580,7 @@
         <v>201</v>
       </c>
       <c r="B200" s="4">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -3605,7 +3591,7 @@
         <v>202</v>
       </c>
       <c r="B201" s="4">
-        <v>565</v>
+        <v>610</v>
       </c>
       <c r="C201" s="4">
         <v>16</v>
@@ -3616,7 +3602,7 @@
         <v>203</v>
       </c>
       <c r="B202" s="4">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>
@@ -3627,7 +3613,7 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="C203" s="4">
         <v>3</v>
@@ -3649,7 +3635,7 @@
         <v>206</v>
       </c>
       <c r="B205" s="4">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C205" s="4">
         <v>12</v>
@@ -3660,7 +3646,7 @@
         <v>207</v>
       </c>
       <c r="B206" s="4">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C206" s="4">
         <v>2</v>
@@ -3671,7 +3657,7 @@
         <v>208</v>
       </c>
       <c r="B207" s="4">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="C207" s="4">
         <v>0</v>
@@ -3682,7 +3668,7 @@
         <v>209</v>
       </c>
       <c r="B208" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C208" s="4">
         <v>0</v>
@@ -3693,7 +3679,7 @@
         <v>210</v>
       </c>
       <c r="B209" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C209" s="4">
         <v>1</v>
@@ -3704,7 +3690,7 @@
         <v>211</v>
       </c>
       <c r="B210" s="4">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C210" s="4">
         <v>1</v>
@@ -3715,7 +3701,7 @@
         <v>212</v>
       </c>
       <c r="B211" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C211" s="4">
         <v>0</v>
@@ -3726,7 +3712,7 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C212" s="4">
         <v>14</v>
@@ -3737,7 +3723,7 @@
         <v>214</v>
       </c>
       <c r="B213" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C213" s="4">
         <v>0</v>
@@ -3748,10 +3734,10 @@
         <v>215</v>
       </c>
       <c r="B214" s="4">
-        <v>1907</v>
+        <v>1960</v>
       </c>
       <c r="C214" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3770,10 +3756,10 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>1432</v>
+        <v>1475</v>
       </c>
       <c r="C216" s="4">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3814,7 +3800,7 @@
         <v>221</v>
       </c>
       <c r="B220" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C220" s="4">
         <v>0</v>
@@ -3825,7 +3811,7 @@
         <v>222</v>
       </c>
       <c r="B221" s="4">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C221" s="4">
         <v>1</v>
@@ -3836,10 +3822,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>22002</v>
+        <v>22665</v>
       </c>
       <c r="C222" s="4">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3847,7 +3833,7 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>921</v>
+        <v>947</v>
       </c>
       <c r="C223" s="4">
         <v>11</v>
@@ -3869,7 +3855,7 @@
         <v>226</v>
       </c>
       <c r="B225" s="4">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C225" s="4">
         <v>0</v>
@@ -3891,7 +3877,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>995</v>
+        <v>1025</v>
       </c>
       <c r="C227" s="4">
         <v>6</v>
@@ -3902,7 +3888,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>1226</v>
+        <v>1271</v>
       </c>
       <c r="C228" s="4">
         <v>13</v>
@@ -3913,10 +3899,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>17791</v>
+        <v>18394</v>
       </c>
       <c r="C229" s="4">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3924,7 +3910,7 @@
         <v>231</v>
       </c>
       <c r="B230" s="4">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C230" s="4">
         <v>0</v>
@@ -3935,7 +3921,7 @@
         <v>232</v>
       </c>
       <c r="B231" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C231" s="4">
         <v>0</v>
@@ -3946,7 +3932,7 @@
         <v>233</v>
       </c>
       <c r="B232" s="4">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
@@ -3968,7 +3954,7 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="C234" s="4">
         <v>5</v>
@@ -3990,7 +3976,7 @@
         <v>237</v>
       </c>
       <c r="B236" s="4">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C236" s="4">
         <v>3</v>
@@ -4012,7 +3998,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>2635</v>
+        <v>2649</v>
       </c>
       <c r="C238" s="4">
         <v>28</v>
@@ -4023,7 +4009,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4045,7 +4031,7 @@
         <v>242</v>
       </c>
       <c r="B241" s="4">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="C241" s="4">
         <v>34</v>
@@ -4056,10 +4042,10 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>4131</v>
+        <v>4276</v>
       </c>
       <c r="C242" s="4">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4067,7 +4053,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C243" s="4">
         <v>1</v>
@@ -4078,7 +4064,7 @@
         <v>245</v>
       </c>
       <c r="B244" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C244" s="4">
         <v>0</v>
@@ -4089,7 +4075,7 @@
         <v>246</v>
       </c>
       <c r="B245" s="4">
-        <v>751</v>
+        <v>764</v>
       </c>
       <c r="C245" s="4">
         <v>9</v>
@@ -4111,10 +4097,10 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>497</v>
+        <v>520</v>
       </c>
       <c r="C247" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4122,10 +4108,10 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>4888</v>
+        <v>4981</v>
       </c>
       <c r="C248" s="4">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4133,10 +4119,10 @@
         <v>250</v>
       </c>
       <c r="B249" s="4">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="C249" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4144,7 +4130,7 @@
         <v>251</v>
       </c>
       <c r="B250" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C250" s="4">
         <v>0</v>
@@ -4155,7 +4141,7 @@
         <v>252</v>
       </c>
       <c r="B251" s="4">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C251" s="4">
         <v>5</v>
@@ -4166,7 +4152,7 @@
         <v>253</v>
       </c>
       <c r="B252" s="4">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C252" s="4">
         <v>5</v>
@@ -4180,7 +4166,7 @@
         <v>55</v>
       </c>
       <c r="C253" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4188,7 +4174,7 @@
         <v>255</v>
       </c>
       <c r="B254" s="4">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C254" s="4">
         <v>1</v>
@@ -4210,7 +4196,7 @@
         <v>257</v>
       </c>
       <c r="B256" s="4">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C256" s="4">
         <v>0</v>
@@ -4221,10 +4207,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>341739</v>
+        <v>351618</v>
       </c>
       <c r="C257" s="4">
-        <v>4151</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
@@ -4250,7 +4236,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4263,56 +4249,56 @@
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B3" s="10">
-        <v>13347</v>
+        <v>13566</v>
       </c>
       <c r="C3" s="18">
         <f>B3/B$6</f>
-        <v>0.46658043767041879</v>
+        <v>0.45849668784642422</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B4" s="10">
-        <v>14882</v>
+        <v>15634</v>
       </c>
       <c r="C4" s="18">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.52024050898412921</v>
+        <v>0.5283898877923483</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B5" s="10">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="C5" s="18">
         <f t="shared" si="0"/>
-        <v>1.3179053345452003E-2</v>
+        <v>1.3113424361227524E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4320,7 +4306,7 @@
         <v>258</v>
       </c>
       <c r="B6" s="10">
-        <v>28606</v>
+        <v>29588</v>
       </c>
       <c r="C6" s="18">
         <f t="shared" si="0"/>
@@ -4329,14 +4315,14 @@
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -4366,7 +4352,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4379,92 +4365,92 @@
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B3" s="10">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="C3" s="18">
         <f>B3/B$9</f>
-        <v>2.317695588338111E-2</v>
+        <v>2.2678112748411517E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B4" s="10">
-        <v>3321</v>
+        <v>3491</v>
       </c>
       <c r="C4" s="18">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.11609452562399497</v>
+        <v>0.11798702176558064</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B5" s="10">
-        <v>11622</v>
+        <v>11999</v>
       </c>
       <c r="C5" s="18">
         <f t="shared" si="0"/>
-        <v>0.40627840313221003</v>
+        <v>0.4055360281195079</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B6" s="10">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C6" s="18">
         <f t="shared" si="0"/>
-        <v>5.1038243725092637E-3</v>
+        <v>5.0020278491280249E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B7" s="10">
-        <v>7133</v>
+        <v>7428</v>
       </c>
       <c r="C7" s="18">
         <f t="shared" si="0"/>
-        <v>0.24935328252814096</v>
+        <v>0.2510477220494795</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B8" s="10">
-        <v>5721</v>
+        <v>5851</v>
       </c>
       <c r="C8" s="18">
         <f t="shared" si="0"/>
-        <v>0.1999930084597637</v>
+        <v>0.19774908746789238</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4472,7 +4458,7 @@
         <v>258</v>
       </c>
       <c r="B9" s="10">
-        <v>28606</v>
+        <v>29588</v>
       </c>
       <c r="C9" s="18">
         <f t="shared" si="0"/>
@@ -4481,14 +4467,14 @@
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -4518,7 +4504,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4531,25 +4517,25 @@
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B3" s="11">
         <v>0</v>
@@ -4561,7 +4547,7 @@
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B4" s="11">
         <v>0</v>
@@ -4573,7 +4559,7 @@
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B5" s="11">
         <v>0</v>
@@ -4585,115 +4571,115 @@
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B6" s="11">
         <v>7</v>
       </c>
       <c r="C6" s="18">
         <f t="shared" si="0"/>
-        <v>9.2348284960422165E-3</v>
+        <v>9.1623036649214652E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B7" s="11">
         <v>12</v>
       </c>
       <c r="C7" s="18">
         <f t="shared" si="0"/>
-        <v>1.5831134564643801E-2</v>
+        <v>1.5706806282722512E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B8" s="11">
         <v>30</v>
       </c>
       <c r="C8" s="18">
         <f t="shared" si="0"/>
-        <v>3.9577836411609502E-2</v>
+        <v>3.9267015706806283E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B9" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C9" s="18">
         <f t="shared" si="0"/>
-        <v>0.10554089709762533</v>
+        <v>0.10602094240837696</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B10" s="11">
         <v>78</v>
       </c>
       <c r="C10" s="18">
         <f t="shared" si="0"/>
-        <v>0.10290237467018469</v>
+        <v>0.10209424083769633</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B11" s="11">
         <v>88</v>
       </c>
       <c r="C11" s="18">
         <f t="shared" si="0"/>
-        <v>0.11609498680738786</v>
+        <v>0.11518324607329843</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B12" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C12" s="18">
         <f t="shared" si="0"/>
-        <v>0.10817941952506596</v>
+        <v>0.1099476439790576</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B13" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" s="18">
         <f t="shared" si="0"/>
-        <v>0.11609498680738786</v>
+        <v>0.11649214659685864</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B14" s="11">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C14" s="18">
         <f t="shared" si="0"/>
-        <v>0.38654353562005278</v>
+        <v>0.38612565445026176</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B15" s="11">
         <v>0</v>
@@ -4708,7 +4694,7 @@
         <v>258</v>
       </c>
       <c r="B16" s="11">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="C16" s="18">
         <f t="shared" si="0"/>
@@ -4717,14 +4703,14 @@
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -4754,7 +4740,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4767,56 +4753,56 @@
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B3" s="11">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C3" s="18">
         <f>B3/B$6</f>
-        <v>0.4129287598944591</v>
+        <v>0.41230366492146597</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B4" s="11">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C4" s="18">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.58575197889182062</v>
+        <v>0.58638743455497377</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B5" s="11">
         <v>1</v>
       </c>
       <c r="C5" s="18">
         <f t="shared" si="0"/>
-        <v>1.3192612137203166E-3</v>
+        <v>1.3089005235602095E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4824,7 +4810,7 @@
         <v>258</v>
       </c>
       <c r="B6" s="11">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="C6" s="18">
         <f t="shared" si="0"/>
@@ -4833,14 +4819,14 @@
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -4870,7 +4856,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4883,92 +4869,92 @@
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B3" s="10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="18">
         <f>B3/B$9</f>
-        <v>2.1108179419525065E-2</v>
+        <v>1.9633507853403141E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B4" s="10">
         <v>95</v>
       </c>
       <c r="C4" s="18">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.12532981530343007</v>
+        <v>0.1243455497382199</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B5" s="10">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C5" s="18">
         <f t="shared" si="0"/>
-        <v>0.29419525065963059</v>
+        <v>0.29973821989528798</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B6" s="10">
         <v>1</v>
       </c>
       <c r="C6" s="18">
         <f t="shared" si="0"/>
-        <v>1.3192612137203166E-3</v>
+        <v>1.3089005235602095E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B7" s="10">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C7" s="18">
         <f t="shared" si="0"/>
-        <v>0.43139841688654351</v>
+        <v>0.4306282722513089</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B8" s="10">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="18">
         <f t="shared" si="0"/>
-        <v>0.12664907651715041</v>
+        <v>0.1243455497382199</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4976,7 +4962,7 @@
         <v>258</v>
       </c>
       <c r="B9" s="10">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="C9" s="18">
         <f t="shared" si="0"/>
@@ -4985,14 +4971,14 @@
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -5018,12 +5004,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="A124" sqref="A124:F124"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5045,281 +5031,271 @@
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="B3" s="6">
-        <v>43916</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1394</v>
-      </c>
-      <c r="D3" s="4">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4">
-        <v>419</v>
-      </c>
-      <c r="F3" s="4">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B4" s="6">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="C4" s="4">
-        <v>1731</v>
+        <v>1394</v>
       </c>
       <c r="D4" s="4">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4">
-        <v>337</v>
+        <v>419</v>
       </c>
       <c r="F4" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B5" s="6">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="C5" s="4">
-        <v>2048</v>
+        <v>1731</v>
       </c>
       <c r="D5" s="4">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5" s="4">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="F5" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B6" s="6">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="C6" s="4">
-        <v>2552</v>
+        <v>2048</v>
       </c>
       <c r="D6" s="4">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E6" s="4">
-        <v>504</v>
+        <v>317</v>
       </c>
       <c r="F6" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B7" s="6">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="C7" s="4">
-        <v>2874</v>
+        <v>2552</v>
       </c>
       <c r="D7" s="4">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E7" s="4">
-        <v>322</v>
+        <v>504</v>
       </c>
       <c r="F7" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B8" s="6">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="C8" s="4">
-        <v>3266</v>
+        <v>2874</v>
       </c>
       <c r="D8" s="4">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E8" s="4">
-        <v>392</v>
+        <v>322</v>
       </c>
       <c r="F8" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B9" s="6">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="C9" s="4">
-        <v>3996</v>
+        <v>3266</v>
       </c>
       <c r="D9" s="4">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E9" s="4">
-        <v>730</v>
+        <v>392</v>
       </c>
       <c r="F9" s="4">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B10" s="6">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="C10" s="4">
-        <v>4665</v>
+        <v>3996</v>
       </c>
       <c r="D10" s="4">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E10" s="4">
-        <v>669</v>
+        <v>730</v>
       </c>
       <c r="F10" s="4">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B11" s="6">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="C11" s="4">
-        <v>5324</v>
+        <v>4665</v>
       </c>
       <c r="D11" s="4">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E11" s="4">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="F11" s="4">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B12" s="6">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="C12" s="4">
-        <v>6112</v>
+        <v>5324</v>
       </c>
       <c r="D12" s="4">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="E12" s="4">
-        <v>788</v>
+        <v>659</v>
       </c>
       <c r="F12" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B13" s="6">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="C13" s="4">
-        <v>6793</v>
+        <v>6112</v>
       </c>
       <c r="D13" s="4">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="E13" s="4">
-        <v>681</v>
+        <v>788</v>
       </c>
       <c r="F13" s="4">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B14" s="6">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="C14" s="4">
-        <v>7273</v>
+        <v>6793</v>
       </c>
       <c r="D14" s="4">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E14" s="4">
-        <v>480</v>
+        <v>681</v>
       </c>
       <c r="F14" s="4">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B15" s="6">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="C15" s="4">
-        <v>8261</v>
+        <v>7273</v>
       </c>
       <c r="D15" s="4">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E15" s="4">
-        <v>988</v>
+        <v>480</v>
       </c>
       <c r="F15" s="4">
         <v>14</v>
@@ -5327,1382 +5303,1382 @@
     </row>
     <row r="16" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B16" s="6">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="C16" s="4">
-        <v>9353</v>
+        <v>8261</v>
       </c>
       <c r="D16" s="4">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="E16" s="4">
-        <v>1092</v>
+        <v>988</v>
       </c>
       <c r="F16" s="4">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B17" s="6">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="C17" s="4">
-        <v>10230</v>
+        <v>9353</v>
       </c>
       <c r="D17" s="4">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="E17" s="4">
-        <v>877</v>
+        <v>1092</v>
       </c>
       <c r="F17" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B18" s="6">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="C18" s="4">
-        <v>11671</v>
+        <v>10230</v>
       </c>
       <c r="D18" s="4">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="E18" s="4">
-        <v>1441</v>
+        <v>877</v>
       </c>
       <c r="F18" s="4">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B19" s="6">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="C19" s="4">
-        <v>12561</v>
+        <v>11671</v>
       </c>
       <c r="D19" s="4">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="E19" s="4">
-        <v>890</v>
+        <v>1441</v>
       </c>
       <c r="F19" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B20" s="6">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="C20" s="4">
-        <v>13484</v>
+        <v>12561</v>
       </c>
       <c r="D20" s="4">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="E20" s="4">
-        <v>923</v>
+        <v>890</v>
       </c>
       <c r="F20" s="4">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B21" s="6">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="C21" s="4">
-        <v>13906</v>
+        <v>13484</v>
       </c>
       <c r="D21" s="4">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="E21" s="4">
-        <v>422</v>
+        <v>923</v>
       </c>
       <c r="F21" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B22" s="6">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="C22" s="4">
-        <v>14624</v>
+        <v>13906</v>
       </c>
       <c r="D22" s="4">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="E22" s="4">
-        <v>718</v>
+        <v>422</v>
       </c>
       <c r="F22" s="4">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B23" s="6">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="C23" s="4">
-        <v>15492</v>
+        <v>14624</v>
       </c>
       <c r="D23" s="4">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="E23" s="4">
-        <v>868</v>
+        <v>718</v>
       </c>
       <c r="F23" s="4">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B24" s="6">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="C24" s="4">
-        <v>16455</v>
+        <v>15492</v>
       </c>
       <c r="D24" s="4">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="E24" s="4">
-        <v>963</v>
+        <v>868</v>
       </c>
       <c r="F24" s="4">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B25" s="6">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="C25" s="4">
-        <v>17371</v>
+        <v>16455</v>
       </c>
       <c r="D25" s="4">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="E25" s="4">
-        <v>916</v>
+        <v>963</v>
       </c>
       <c r="F25" s="4">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B26" s="6">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="C26" s="4">
-        <v>18260</v>
+        <v>17371</v>
       </c>
       <c r="D26" s="4">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="E26" s="4">
-        <v>889</v>
+        <v>916</v>
       </c>
       <c r="F26" s="4">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B27" s="6">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="C27" s="4">
-        <v>18923</v>
+        <v>18260</v>
       </c>
       <c r="D27" s="4">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="E27" s="4">
-        <v>663</v>
+        <v>889</v>
       </c>
       <c r="F27" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B28" s="6">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="C28" s="4">
-        <v>19458</v>
+        <v>18923</v>
       </c>
       <c r="D28" s="4">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="E28" s="4">
-        <v>535</v>
+        <v>663</v>
       </c>
       <c r="F28" s="4">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B29" s="6">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="C29" s="4">
-        <v>20196</v>
+        <v>19458</v>
       </c>
       <c r="D29" s="4">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="E29" s="4">
-        <v>738</v>
+        <v>535</v>
       </c>
       <c r="F29" s="4">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B30" s="6">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="C30" s="4">
-        <v>21069</v>
+        <v>20196</v>
       </c>
       <c r="D30" s="4">
-        <v>543</v>
+        <v>517</v>
       </c>
       <c r="E30" s="4">
-        <v>873</v>
+        <v>738</v>
       </c>
       <c r="F30" s="4">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B31" s="6">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="C31" s="4">
-        <v>21944</v>
+        <v>21069</v>
       </c>
       <c r="D31" s="4">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="E31" s="4">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F31" s="4">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B32" s="6">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="C32" s="4">
-        <v>22806</v>
+        <v>21944</v>
       </c>
       <c r="D32" s="4">
-        <v>593</v>
+        <v>561</v>
       </c>
       <c r="E32" s="4">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c r="F32" s="4">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B33" s="6">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="C33" s="4">
-        <v>23773</v>
+        <v>22806</v>
       </c>
       <c r="D33" s="4">
-        <v>623</v>
+        <v>593</v>
       </c>
       <c r="E33" s="4">
-        <v>967</v>
+        <v>862</v>
       </c>
       <c r="F33" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B34" s="6">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="C34" s="4">
-        <v>24631</v>
+        <v>23773</v>
       </c>
       <c r="D34" s="4">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="E34" s="4">
-        <v>858</v>
+        <v>967</v>
       </c>
       <c r="F34" s="4">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B35" s="6">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="C35" s="4">
-        <v>25297</v>
+        <v>24631</v>
       </c>
       <c r="D35" s="4">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="E35" s="4">
-        <v>666</v>
+        <v>858</v>
       </c>
       <c r="F35" s="4">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B36" s="6">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="C36" s="4">
-        <v>26171</v>
+        <v>25297</v>
       </c>
       <c r="D36" s="4">
-        <v>690</v>
+        <v>663</v>
       </c>
       <c r="E36" s="4">
-        <v>874</v>
+        <v>666</v>
       </c>
       <c r="F36" s="4">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B37" s="6">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="C37" s="4">
-        <v>27054</v>
+        <v>26171</v>
       </c>
       <c r="D37" s="4">
-        <v>732</v>
+        <v>690</v>
       </c>
       <c r="E37" s="4">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="F37" s="4">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B38" s="6">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="C38" s="4">
-        <v>28087</v>
+        <v>27054</v>
       </c>
       <c r="D38" s="4">
-        <v>782</v>
+        <v>732</v>
       </c>
       <c r="E38" s="4">
-        <v>1033</v>
+        <v>883</v>
       </c>
       <c r="F38" s="4">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B39" s="6">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="C39" s="4">
-        <v>29229</v>
+        <v>28087</v>
       </c>
       <c r="D39" s="4">
-        <v>816</v>
+        <v>782</v>
       </c>
       <c r="E39" s="4">
-        <v>1142</v>
+        <v>1033</v>
       </c>
       <c r="F39" s="4">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B40" s="6">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="C40" s="4">
-        <v>30522</v>
+        <v>29229</v>
       </c>
       <c r="D40" s="4">
-        <v>847</v>
+        <v>816</v>
       </c>
       <c r="E40" s="4">
-        <v>1293</v>
+        <v>1142</v>
       </c>
       <c r="F40" s="4">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B41" s="6">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="C41" s="4">
-        <v>31548</v>
+        <v>30522</v>
       </c>
       <c r="D41" s="4">
-        <v>867</v>
+        <v>847</v>
       </c>
       <c r="E41" s="4">
-        <v>1026</v>
+        <v>1293</v>
       </c>
       <c r="F41" s="4">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B42" s="6">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="C42" s="4">
-        <v>32332</v>
+        <v>31548</v>
       </c>
       <c r="D42" s="4">
-        <v>884</v>
+        <v>867</v>
       </c>
       <c r="E42" s="4">
-        <v>784</v>
+        <v>1026</v>
       </c>
       <c r="F42" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B43" s="6">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="C43" s="4">
-        <v>33369</v>
+        <v>32332</v>
       </c>
       <c r="D43" s="4">
-        <v>906</v>
+        <v>884</v>
       </c>
       <c r="E43" s="4">
-        <v>1037</v>
+        <v>784</v>
       </c>
       <c r="F43" s="4">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B44" s="6">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="C44" s="4">
-        <v>34422</v>
+        <v>33369</v>
       </c>
       <c r="D44" s="4">
-        <v>948</v>
+        <v>906</v>
       </c>
       <c r="E44" s="4">
-        <v>1053</v>
+        <v>1037</v>
       </c>
       <c r="F44" s="4">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B45" s="6">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="C45" s="4">
-        <v>35390</v>
+        <v>34422</v>
       </c>
       <c r="D45" s="4">
-        <v>973</v>
+        <v>948</v>
       </c>
       <c r="E45" s="4">
-        <v>968</v>
+        <v>1053</v>
       </c>
       <c r="F45" s="4">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B46" s="6">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="C46" s="4">
-        <v>36609</v>
+        <v>35390</v>
       </c>
       <c r="D46" s="4">
-        <v>1004</v>
+        <v>973</v>
       </c>
       <c r="E46" s="4">
-        <v>1219</v>
+        <v>968</v>
       </c>
       <c r="F46" s="4">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B47" s="6">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="C47" s="4">
-        <v>37860</v>
+        <v>36609</v>
       </c>
       <c r="D47" s="4">
-        <v>1049</v>
+        <v>1004</v>
       </c>
       <c r="E47" s="4">
-        <v>1251</v>
+        <v>1219</v>
       </c>
       <c r="F47" s="4">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B48" s="6">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="C48" s="4">
-        <v>38869</v>
+        <v>37860</v>
       </c>
       <c r="D48" s="4">
-        <v>1088</v>
+        <v>1049</v>
       </c>
       <c r="E48" s="4">
-        <v>1009</v>
+        <v>1251</v>
       </c>
       <c r="F48" s="4">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B49" s="6">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="C49" s="4">
-        <v>39869</v>
+        <v>38869</v>
       </c>
       <c r="D49" s="4">
-        <v>1100</v>
+        <v>1088</v>
       </c>
       <c r="E49" s="4">
-        <v>1000</v>
+        <v>1009</v>
       </c>
       <c r="F49" s="4">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B50" s="6">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="C50" s="4">
-        <v>41048</v>
+        <v>39869</v>
       </c>
       <c r="D50" s="4">
-        <v>1133</v>
+        <v>1100</v>
       </c>
       <c r="E50" s="4">
-        <v>1179</v>
+        <v>1000</v>
       </c>
       <c r="F50" s="4">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B51" s="6">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="C51" s="4">
-        <v>42403</v>
+        <v>41048</v>
       </c>
       <c r="D51" s="4">
-        <v>1158</v>
+        <v>1133</v>
       </c>
       <c r="E51" s="4">
-        <v>1355</v>
+        <v>1179</v>
       </c>
       <c r="F51" s="4">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B52" s="6">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="C52" s="4">
-        <v>43851</v>
+        <v>42403</v>
       </c>
       <c r="D52" s="4">
-        <v>1216</v>
+        <v>1158</v>
       </c>
       <c r="E52" s="4">
-        <v>1448</v>
+        <v>1355</v>
       </c>
       <c r="F52" s="4">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B53" s="6">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="C53" s="4">
-        <v>45198</v>
+        <v>43851</v>
       </c>
       <c r="D53" s="4">
-        <v>1272</v>
+        <v>1216</v>
       </c>
       <c r="E53" s="4">
-        <v>1347</v>
+        <v>1448</v>
       </c>
       <c r="F53" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B54" s="6">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="C54" s="4">
-        <v>46999</v>
+        <v>45198</v>
       </c>
       <c r="D54" s="4">
-        <v>1305</v>
+        <v>1272</v>
       </c>
       <c r="E54" s="4">
-        <v>1801</v>
+        <v>1347</v>
       </c>
       <c r="F54" s="4">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B55" s="6">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="C55" s="4">
-        <v>47784</v>
+        <v>46999</v>
       </c>
       <c r="D55" s="4">
-        <v>1336</v>
+        <v>1305</v>
       </c>
       <c r="E55" s="4">
-        <v>785</v>
+        <v>1801</v>
       </c>
       <c r="F55" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B56" s="6">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="C56" s="4">
-        <v>48693</v>
+        <v>47784</v>
       </c>
       <c r="D56" s="4">
-        <v>1347</v>
+        <v>1336</v>
       </c>
       <c r="E56" s="4">
-        <v>909</v>
+        <v>785</v>
       </c>
       <c r="F56" s="4">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B57" s="6">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="C57" s="4">
-        <v>49912</v>
+        <v>48693</v>
       </c>
       <c r="D57" s="4">
-        <v>1369</v>
+        <v>1347</v>
       </c>
       <c r="E57" s="4">
-        <v>1219</v>
+        <v>909</v>
       </c>
       <c r="F57" s="4">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B58" s="6">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="C58" s="4">
-        <v>51323</v>
+        <v>49912</v>
       </c>
       <c r="D58" s="4">
-        <v>1419</v>
+        <v>1369</v>
       </c>
       <c r="E58" s="4">
-        <v>1411</v>
+        <v>1219</v>
       </c>
       <c r="F58" s="4">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B59" s="6">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="C59" s="4">
-        <v>52268</v>
+        <v>51323</v>
       </c>
       <c r="D59" s="4">
-        <v>1440</v>
+        <v>1419</v>
       </c>
       <c r="E59" s="4">
-        <v>945</v>
+        <v>1411</v>
       </c>
       <c r="F59" s="4">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B60" s="6">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="C60" s="4">
-        <v>53449</v>
+        <v>52268</v>
       </c>
       <c r="D60" s="4">
-        <v>1480</v>
+        <v>1440</v>
       </c>
       <c r="E60" s="4">
-        <v>1181</v>
+        <v>945</v>
       </c>
       <c r="F60" s="4">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B61" s="6">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="C61" s="4">
-        <v>54509</v>
+        <v>53449</v>
       </c>
       <c r="D61" s="4">
-        <v>1506</v>
+        <v>1480</v>
       </c>
       <c r="E61" s="4">
-        <v>1060</v>
+        <v>1181</v>
       </c>
       <c r="F61" s="4">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B62" s="6">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="C62" s="4">
-        <v>55348</v>
+        <v>54509</v>
       </c>
       <c r="D62" s="4">
-        <v>1519</v>
+        <v>1506</v>
       </c>
       <c r="E62" s="4">
-        <v>839</v>
+        <v>1060</v>
       </c>
       <c r="F62" s="4">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B63" s="6">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="C63" s="4">
-        <v>55971</v>
+        <v>55348</v>
       </c>
       <c r="D63" s="4">
-        <v>1527</v>
+        <v>1519</v>
       </c>
       <c r="E63" s="4">
-        <v>623</v>
+        <v>839</v>
       </c>
       <c r="F63" s="4">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B64" s="6">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="C64" s="4">
-        <v>56560</v>
+        <v>55971</v>
       </c>
       <c r="D64" s="4">
-        <v>1536</v>
+        <v>1527</v>
       </c>
       <c r="E64" s="4">
-        <v>589</v>
+        <v>623</v>
       </c>
       <c r="F64" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B65" s="6">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="C65" s="4">
-        <v>57921</v>
+        <v>56560</v>
       </c>
       <c r="D65" s="4">
-        <v>1562</v>
+        <v>1536</v>
       </c>
       <c r="E65" s="4">
-        <v>1361</v>
+        <v>589</v>
       </c>
       <c r="F65" s="4">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B66" s="6">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="C66" s="4">
-        <v>59776</v>
+        <v>57921</v>
       </c>
       <c r="D66" s="4">
-        <v>1601</v>
+        <v>1562</v>
       </c>
       <c r="E66" s="4">
-        <v>1855</v>
+        <v>1361</v>
       </c>
       <c r="F66" s="4">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B67" s="6">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="C67" s="4">
-        <v>61006</v>
+        <v>59776</v>
       </c>
       <c r="D67" s="4">
-        <v>1626</v>
+        <v>1601</v>
       </c>
       <c r="E67" s="4">
-        <v>1230</v>
+        <v>1855</v>
       </c>
       <c r="F67" s="4">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B68" s="6">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="C68" s="4">
-        <v>62338</v>
+        <v>61006</v>
       </c>
       <c r="D68" s="4">
-        <v>1648</v>
+        <v>1626</v>
       </c>
       <c r="E68" s="4">
-        <v>1332</v>
+        <v>1230</v>
       </c>
       <c r="F68" s="4">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B69" s="6">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="C69" s="4">
-        <v>64287</v>
+        <v>62338</v>
       </c>
       <c r="D69" s="4">
-        <v>1672</v>
+        <v>1648</v>
       </c>
       <c r="E69" s="4">
-        <v>1949</v>
+        <v>1332</v>
       </c>
       <c r="F69" s="4">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B70" s="6">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="C70" s="4">
-        <v>64880</v>
+        <v>64287</v>
       </c>
       <c r="D70" s="4">
-        <v>1678</v>
+        <v>1672</v>
       </c>
       <c r="E70" s="4">
-        <v>593</v>
+        <v>1949</v>
       </c>
       <c r="F70" s="4">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B71" s="6">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="C71" s="4">
-        <v>66568</v>
+        <v>64880</v>
       </c>
       <c r="D71" s="4">
-        <v>1698</v>
+        <v>1678</v>
       </c>
       <c r="E71" s="4">
-        <v>1688</v>
+        <v>593</v>
       </c>
       <c r="F71" s="4">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B72" s="6">
-        <v>43985</v>
+        <v>43984</v>
       </c>
       <c r="C72" s="4">
-        <v>68271</v>
+        <v>66568</v>
       </c>
       <c r="D72" s="4">
-        <v>1734</v>
+        <v>1698</v>
       </c>
       <c r="E72" s="4">
-        <v>1703</v>
+        <v>1688</v>
       </c>
       <c r="F72" s="4">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B73" s="6">
-        <v>43986</v>
+        <v>43985</v>
       </c>
       <c r="C73" s="4">
-        <v>69920</v>
+        <v>68271</v>
       </c>
       <c r="D73" s="4">
-        <v>1767</v>
+        <v>1734</v>
       </c>
       <c r="E73" s="4">
-        <v>1649</v>
+        <v>1703</v>
       </c>
       <c r="F73" s="4">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B74" s="6">
-        <v>43987</v>
+        <v>43986</v>
       </c>
       <c r="C74" s="4">
-        <v>71613</v>
+        <v>69920</v>
       </c>
       <c r="D74" s="4">
-        <v>1788</v>
+        <v>1767</v>
       </c>
       <c r="E74" s="4">
-        <v>1693</v>
+        <v>1649</v>
       </c>
       <c r="F74" s="4">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B75" s="6">
-        <v>43988</v>
+        <v>43987</v>
       </c>
       <c r="C75" s="4">
-        <v>73553</v>
+        <v>71613</v>
       </c>
       <c r="D75" s="4">
-        <v>1819</v>
+        <v>1788</v>
       </c>
       <c r="E75" s="4">
-        <v>1940</v>
+        <v>1693</v>
       </c>
       <c r="F75" s="4">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B76" s="6">
-        <v>43989</v>
+        <v>43988</v>
       </c>
       <c r="C76" s="4">
-        <v>74978</v>
+        <v>73553</v>
       </c>
       <c r="D76" s="4">
-        <v>1830</v>
+        <v>1819</v>
       </c>
       <c r="E76" s="4">
-        <v>1425</v>
+        <v>1940</v>
       </c>
       <c r="F76" s="4">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B77" s="6">
-        <v>43990</v>
+        <v>43989</v>
       </c>
       <c r="C77" s="4">
-        <v>75616</v>
+        <v>74978</v>
       </c>
       <c r="D77" s="4">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="E77" s="4">
-        <v>638</v>
+        <v>1425</v>
       </c>
       <c r="F77" s="4">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B78" s="6">
-        <v>43991</v>
+        <v>43990</v>
       </c>
       <c r="C78" s="4">
-        <v>77253</v>
+        <v>75616</v>
       </c>
       <c r="D78" s="4">
-        <v>1853</v>
+        <v>1836</v>
       </c>
       <c r="E78" s="4">
-        <v>1637</v>
+        <v>638</v>
       </c>
       <c r="F78" s="4">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B79" s="6">
-        <v>43992</v>
+        <v>43991</v>
       </c>
       <c r="C79" s="4">
-        <v>79757</v>
+        <v>77253</v>
       </c>
       <c r="D79" s="4">
-        <v>1885</v>
+        <v>1853</v>
       </c>
       <c r="E79" s="4">
-        <v>2504</v>
+        <v>1637</v>
       </c>
       <c r="F79" s="4">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B80" s="6">
-        <v>43993</v>
+        <v>43992</v>
       </c>
       <c r="C80" s="4">
-        <v>81583</v>
+        <v>79757</v>
       </c>
       <c r="D80" s="4">
-        <v>1920</v>
+        <v>1885</v>
       </c>
       <c r="E80" s="4">
-        <v>1826</v>
+        <v>2504</v>
       </c>
       <c r="F80" s="4">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B81" s="6">
-        <v>43994</v>
+        <v>43993</v>
       </c>
       <c r="C81" s="4">
-        <v>83680</v>
+        <v>81583</v>
       </c>
       <c r="D81" s="4">
-        <v>1939</v>
+        <v>1920</v>
       </c>
       <c r="E81" s="4">
-        <v>2097</v>
+        <v>1826</v>
       </c>
       <c r="F81" s="4">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B82" s="6">
-        <v>43995</v>
+        <v>43994</v>
       </c>
       <c r="C82" s="4">
-        <v>86011</v>
+        <v>83680</v>
       </c>
       <c r="D82" s="4">
-        <v>1957</v>
+        <v>1939</v>
       </c>
       <c r="E82" s="4">
-        <v>2331</v>
+        <v>2097</v>
       </c>
       <c r="F82" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B83" s="6">
-        <v>43996</v>
+        <v>43995</v>
       </c>
       <c r="C83" s="4">
-        <v>87854</v>
+        <v>86011</v>
       </c>
       <c r="D83" s="4">
-        <v>1976</v>
+        <v>1957</v>
       </c>
       <c r="E83" s="4">
-        <v>1843</v>
+        <v>2331</v>
       </c>
       <c r="F83" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B84" s="6">
-        <v>43997</v>
+        <v>43996</v>
       </c>
       <c r="C84" s="4">
-        <v>89108</v>
+        <v>87854</v>
       </c>
       <c r="D84" s="4">
-        <v>1983</v>
+        <v>1976</v>
       </c>
       <c r="E84" s="4">
-        <v>1254</v>
+        <v>1843</v>
       </c>
       <c r="F84" s="4">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6710,760 +6686,767 @@
         <v>268</v>
       </c>
       <c r="B85" s="6">
-        <v>43998</v>
+        <v>43997</v>
       </c>
       <c r="C85" s="4">
-        <v>93206</v>
+        <v>89108</v>
       </c>
       <c r="D85" s="4">
-        <v>2029</v>
+        <v>1983</v>
       </c>
       <c r="E85" s="4">
-        <v>2622</v>
+        <v>1254</v>
       </c>
       <c r="F85" s="4">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B86" s="6">
-        <v>43999</v>
+        <v>43998</v>
       </c>
       <c r="C86" s="4">
-        <v>96335</v>
+        <v>93206</v>
       </c>
       <c r="D86" s="4">
-        <v>2062</v>
+        <v>2029</v>
       </c>
       <c r="E86" s="4">
-        <v>3129</v>
+        <v>2622</v>
       </c>
       <c r="F86" s="4">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B87" s="6">
-        <v>44000</v>
+        <v>43999</v>
       </c>
       <c r="C87" s="4">
-        <v>99851</v>
+        <v>96335</v>
       </c>
       <c r="D87" s="4">
-        <v>2105</v>
+        <v>2062</v>
       </c>
       <c r="E87" s="4">
-        <v>3516</v>
+        <v>3129</v>
       </c>
       <c r="F87" s="4">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B88" s="6">
-        <v>44001</v>
+        <v>44000</v>
       </c>
       <c r="C88" s="4">
-        <v>103305</v>
+        <v>99851</v>
       </c>
       <c r="D88" s="4">
-        <v>2140</v>
+        <v>2105</v>
       </c>
       <c r="E88" s="4">
-        <v>3454</v>
+        <v>3516</v>
       </c>
       <c r="F88" s="4">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B89" s="6">
-        <v>44002</v>
+        <v>44001</v>
       </c>
       <c r="C89" s="4">
-        <v>107735</v>
+        <v>103305</v>
       </c>
       <c r="D89" s="4">
-        <v>2165</v>
+        <v>2140</v>
       </c>
       <c r="E89" s="4">
-        <v>4430</v>
+        <v>3454</v>
       </c>
       <c r="F89" s="4">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B90" s="6">
-        <v>44003</v>
+        <v>44002</v>
       </c>
       <c r="C90" s="4">
-        <v>111601</v>
+        <v>107735</v>
       </c>
       <c r="D90" s="4">
-        <v>2182</v>
+        <v>2165</v>
       </c>
       <c r="E90" s="4">
-        <v>3866</v>
+        <v>4430</v>
       </c>
       <c r="F90" s="4">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B91" s="6">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="C91" s="4">
-        <v>114881</v>
+        <v>111601</v>
       </c>
       <c r="D91" s="4">
-        <v>2192</v>
+        <v>2182</v>
       </c>
       <c r="E91" s="4">
-        <v>3280</v>
+        <v>3866</v>
       </c>
       <c r="F91" s="4">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B92" s="6">
-        <v>44005</v>
+        <v>44004</v>
       </c>
       <c r="C92" s="4">
-        <v>120370</v>
+        <v>114881</v>
       </c>
       <c r="D92" s="4">
-        <v>2220</v>
+        <v>2192</v>
       </c>
       <c r="E92" s="4">
-        <v>5489</v>
+        <v>3280</v>
       </c>
       <c r="F92" s="4">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B93" s="6">
-        <v>44006</v>
+        <v>44005</v>
       </c>
       <c r="C93" s="4">
-        <v>125921</v>
+        <v>120370</v>
       </c>
       <c r="D93" s="4">
-        <v>2249</v>
+        <v>2220</v>
       </c>
       <c r="E93" s="4">
-        <v>5551</v>
+        <v>5489</v>
       </c>
       <c r="F93" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B94" s="6">
-        <v>44007</v>
+        <v>44006</v>
       </c>
       <c r="C94" s="4">
-        <v>131917</v>
+        <v>125921</v>
       </c>
       <c r="D94" s="4">
-        <v>2296</v>
+        <v>2249</v>
       </c>
       <c r="E94" s="4">
-        <v>5996</v>
+        <v>5551</v>
       </c>
       <c r="F94" s="4">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B95" s="6">
-        <v>44008</v>
+        <v>44007</v>
       </c>
       <c r="C95" s="4">
-        <v>137624</v>
+        <v>131917</v>
       </c>
       <c r="D95" s="4">
-        <v>2324</v>
+        <v>2296</v>
       </c>
       <c r="E95" s="4">
-        <v>5707</v>
+        <v>5996</v>
       </c>
       <c r="F95" s="4">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B96" s="6">
-        <v>44009</v>
+        <v>44008</v>
       </c>
       <c r="C96" s="4">
-        <v>143366</v>
+        <v>137624</v>
       </c>
       <c r="D96" s="4">
-        <v>2366</v>
+        <v>2324</v>
       </c>
       <c r="E96" s="4">
-        <v>5742</v>
+        <v>5707</v>
       </c>
       <c r="F96" s="4">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B97" s="6">
-        <v>44010</v>
+        <v>44009</v>
       </c>
       <c r="C97" s="4">
-        <v>148723</v>
+        <v>143366</v>
       </c>
       <c r="D97" s="4">
-        <v>2393</v>
+        <v>2366</v>
       </c>
       <c r="E97" s="4">
-        <v>5357</v>
+        <v>5742</v>
       </c>
       <c r="F97" s="4">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B98" s="6">
-        <v>44011</v>
+        <v>44010</v>
       </c>
       <c r="C98" s="4">
-        <v>153011</v>
+        <v>148723</v>
       </c>
       <c r="D98" s="4">
-        <v>2403</v>
+        <v>2393</v>
       </c>
       <c r="E98" s="4">
-        <v>4288</v>
+        <v>5357</v>
       </c>
       <c r="F98" s="4">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B99" s="6">
-        <v>44012</v>
+        <v>44011</v>
       </c>
       <c r="C99" s="4">
-        <v>159986</v>
+        <v>153011</v>
       </c>
       <c r="D99" s="4">
-        <v>2424</v>
+        <v>2403</v>
       </c>
       <c r="E99" s="4">
-        <v>6975</v>
+        <v>4288</v>
       </c>
       <c r="F99" s="4">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B100" s="6">
-        <v>44013</v>
+        <v>44012</v>
       </c>
       <c r="C100" s="4">
-        <v>168062</v>
+        <v>159986</v>
       </c>
       <c r="D100" s="4">
-        <v>2481</v>
+        <v>2424</v>
       </c>
       <c r="E100" s="4">
-        <v>8076</v>
+        <v>6975</v>
       </c>
       <c r="F100" s="4">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B101" s="6">
-        <v>44014</v>
+        <v>44013</v>
       </c>
       <c r="C101" s="4">
-        <v>175977</v>
+        <v>168062</v>
       </c>
       <c r="D101" s="4">
-        <v>2525</v>
+        <v>2481</v>
       </c>
       <c r="E101" s="4">
-        <v>7915</v>
+        <v>8076</v>
       </c>
       <c r="F101" s="4">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B102" s="6">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="C102" s="4">
-        <v>183532</v>
+        <v>175977</v>
       </c>
       <c r="D102" s="4">
-        <v>2575</v>
+        <v>2525</v>
       </c>
       <c r="E102" s="4">
-        <v>7555</v>
+        <v>7915</v>
       </c>
       <c r="F102" s="4">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B103" s="6">
-        <v>44016</v>
+        <v>44015</v>
       </c>
       <c r="C103" s="4">
-        <v>191790</v>
+        <v>183532</v>
       </c>
       <c r="D103" s="4">
-        <v>2608</v>
+        <v>2575</v>
       </c>
       <c r="E103" s="4">
-        <v>8258</v>
+        <v>7555</v>
       </c>
       <c r="F103" s="4">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B104" s="6">
-        <v>44017</v>
+        <v>44016</v>
       </c>
       <c r="C104" s="4">
-        <v>195239</v>
+        <v>191790</v>
       </c>
       <c r="D104" s="4">
-        <v>2637</v>
+        <v>2608</v>
       </c>
       <c r="E104" s="4">
-        <v>3449</v>
+        <v>8258</v>
       </c>
       <c r="F104" s="4">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B105" s="6">
-        <v>44018</v>
+        <v>44017</v>
       </c>
       <c r="C105" s="4">
-        <v>200557</v>
+        <v>195239</v>
       </c>
       <c r="D105" s="4">
-        <v>2655</v>
+        <v>2637</v>
       </c>
       <c r="E105" s="4">
-        <v>5318</v>
+        <v>3449</v>
       </c>
       <c r="F105" s="4">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B106" s="6">
-        <v>44019</v>
+        <v>44018</v>
       </c>
       <c r="C106" s="4">
-        <v>210585</v>
+        <v>200557</v>
       </c>
       <c r="D106" s="4">
-        <v>2715</v>
+        <v>2655</v>
       </c>
       <c r="E106" s="4">
-        <v>10028</v>
+        <v>5318</v>
       </c>
       <c r="F106" s="4">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B107" s="6">
-        <v>44020</v>
+        <v>44019</v>
       </c>
       <c r="C107" s="4">
-        <v>220564</v>
+        <v>210585</v>
       </c>
       <c r="D107" s="4">
-        <v>2813</v>
+        <v>2715</v>
       </c>
       <c r="E107" s="4">
-        <v>9979</v>
+        <v>10028</v>
       </c>
       <c r="F107" s="4">
-        <v>98</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B108" s="6">
-        <v>44021</v>
+        <v>44020</v>
       </c>
       <c r="C108" s="4">
-        <v>230346</v>
+        <v>220564</v>
       </c>
       <c r="D108" s="4">
-        <v>2918</v>
+        <v>2813</v>
       </c>
       <c r="E108" s="4">
-        <v>9782</v>
+        <v>9979</v>
       </c>
       <c r="F108" s="4">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B109" s="6">
-        <v>44022</v>
+        <v>44021</v>
       </c>
       <c r="C109" s="4">
-        <v>240111</v>
+        <v>230346</v>
       </c>
       <c r="D109" s="4">
-        <v>3013</v>
+        <v>2918</v>
       </c>
       <c r="E109" s="4">
-        <v>9765</v>
+        <v>9782</v>
       </c>
       <c r="F109" s="4">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B110" s="6">
-        <v>44023</v>
+        <v>44022</v>
       </c>
       <c r="C110" s="4">
-        <v>250462</v>
+        <v>240111</v>
       </c>
       <c r="D110" s="4">
-        <v>3112</v>
+        <v>3013</v>
       </c>
       <c r="E110" s="4">
-        <v>10351</v>
+        <v>9765</v>
       </c>
       <c r="F110" s="4">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B111" s="6">
-        <v>44024</v>
+        <v>44023</v>
       </c>
       <c r="C111" s="4">
-        <v>258658</v>
+        <v>250462</v>
       </c>
       <c r="D111" s="4">
-        <v>3192</v>
+        <v>3112</v>
       </c>
       <c r="E111" s="4">
-        <v>8196</v>
+        <v>10351</v>
       </c>
       <c r="F111" s="4">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B112" s="6">
-        <v>44025</v>
+        <v>44024</v>
       </c>
       <c r="C112" s="4">
-        <v>264313</v>
+        <v>258658</v>
       </c>
       <c r="D112" s="4">
-        <v>3235</v>
+        <v>3192</v>
       </c>
       <c r="E112" s="4">
-        <v>5655</v>
+        <v>8196</v>
       </c>
       <c r="F112" s="4">
-        <v>43</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B113" s="6">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="C113" s="4">
-        <v>275058</v>
+        <v>264313</v>
       </c>
       <c r="D113" s="4">
-        <v>3322</v>
+        <v>3235</v>
       </c>
       <c r="E113" s="4">
-        <v>10745</v>
+        <v>5655</v>
       </c>
       <c r="F113" s="4">
-        <v>87</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B114" s="6">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="C114" s="4">
-        <v>282365</v>
+        <v>275058</v>
       </c>
       <c r="D114" s="4">
-        <v>3432</v>
+        <v>3322</v>
       </c>
       <c r="E114" s="4">
-        <v>10791</v>
+        <v>10745</v>
       </c>
       <c r="F114" s="4">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B115" s="6">
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="C115" s="4">
-        <v>292656</v>
+        <v>282365</v>
       </c>
       <c r="D115" s="4">
-        <v>3561</v>
+        <v>3432</v>
       </c>
       <c r="E115" s="4">
-        <v>10291</v>
+        <v>10791</v>
       </c>
       <c r="F115" s="4">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B116" s="6">
+        <v>44028</v>
+      </c>
+      <c r="C116" s="4">
+        <v>292656</v>
+      </c>
+      <c r="D116" s="4">
+        <v>3561</v>
+      </c>
+      <c r="E116" s="4">
+        <v>10291</v>
+      </c>
+      <c r="F116" s="4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B117" s="6">
         <v>44029</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C117" s="4">
         <v>307572</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D117" s="4">
         <v>3735</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E117" s="4">
         <v>10256</v>
       </c>
-      <c r="F116" s="4">
+      <c r="F117" s="4">
         <v>174</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="6">
-        <v>44030</v>
-      </c>
-      <c r="C117" s="4">
-        <v>317730</v>
-      </c>
-      <c r="D117" s="4">
-        <v>3865</v>
-      </c>
-      <c r="E117" s="4">
-        <v>10158</v>
-      </c>
-      <c r="F117" s="4">
-        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="6">
-        <v>44031</v>
+        <v>44030</v>
       </c>
       <c r="C118" s="4">
-        <v>325030</v>
+        <v>317730</v>
       </c>
       <c r="D118" s="4">
-        <v>3958</v>
+        <v>3865</v>
       </c>
       <c r="E118" s="4">
-        <v>7300</v>
+        <v>10158</v>
       </c>
       <c r="F118" s="4">
-        <v>93</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="6">
-        <v>44032</v>
+        <v>44031</v>
       </c>
       <c r="C119" s="4">
-        <v>332434</v>
+        <v>325030</v>
       </c>
       <c r="D119" s="4">
-        <v>4020</v>
+        <v>3958</v>
       </c>
       <c r="E119" s="4">
-        <v>7404</v>
+        <v>7300</v>
       </c>
       <c r="F119" s="4">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="6">
+        <v>44032</v>
+      </c>
+      <c r="C120" s="4">
+        <v>332434</v>
+      </c>
+      <c r="D120" s="4">
+        <v>4020</v>
+      </c>
+      <c r="E120" s="4">
+        <v>7404</v>
+      </c>
+      <c r="F120" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3"/>
+      <c r="B121" s="6">
         <v>44033</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C121" s="4">
         <v>341739</v>
       </c>
-      <c r="D120" s="4">
+      <c r="D121" s="4">
         <v>4151</v>
       </c>
-      <c r="E120" s="4">
+      <c r="E121" s="4">
         <v>9305</v>
       </c>
-      <c r="F120" s="4">
+      <c r="F121" s="4">
         <v>131</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="122" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="19" t="s">
+      <c r="A122" s="3"/>
+      <c r="B122" s="6">
+        <v>44034</v>
+      </c>
+      <c r="C122" s="4">
+        <v>351618</v>
+      </c>
+      <c r="D122" s="4">
+        <v>4348</v>
+      </c>
+      <c r="E122" s="4">
+        <v>9879</v>
+      </c>
+      <c r="F122" s="4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="B122" s="19"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
-    </row>
-    <row r="123" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="B123" s="19"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="19"/>
-    </row>
-    <row r="124" spans="1:6" ht="39.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
-      <c r="E124" s="19"/>
-      <c r="F124" s="19"/>
-    </row>
-    <row r="125" spans="1:6" ht="52" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="B125" s="19"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19"/>
-      <c r="F125" s="19"/>
-    </row>
+      <c r="B124" s="13"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+    </row>
+    <row r="126" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A125:F125"/>
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="A2:F2"/>
     <mergeCell ref="A124:F124"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -7477,8 +7460,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7489,29 +7472,29 @@
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>186529</v>
+        <v>195314.8</v>
       </c>
       <c r="B3" s="7">
-        <v>151059</v>
+        <v>151955</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B5" s="13"/>
     </row>
@@ -7527,12 +7510,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E1:E1048576"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7546,7 +7529,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -7558,28 +7541,28 @@
     </row>
     <row r="2" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7587,10 +7570,10 @@
         <v>43925</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D3" s="7">
         <v>63751</v>
@@ -7599,13 +7582,13 @@
         <v>0.1056</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7613,10 +7596,10 @@
         <v>43926</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D4" s="7">
         <v>70938</v>
@@ -7625,13 +7608,13 @@
         <v>9.3299999999999994E-2</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7639,10 +7622,10 @@
         <v>43927</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D5" s="7">
         <v>85357</v>
@@ -7651,13 +7634,13 @@
         <v>8.8909998585200004E-2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7665,10 +7648,10 @@
         <v>43928</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D6" s="7">
         <v>88649</v>
@@ -7677,13 +7660,13 @@
         <v>0.1094</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7691,10 +7674,10 @@
         <v>43929</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D7" s="7">
         <v>96258</v>
@@ -7703,13 +7686,13 @@
         <v>0.11070000000000001</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7717,10 +7700,10 @@
         <v>43930</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D8" s="7">
         <v>106134</v>
@@ -7729,13 +7712,13 @@
         <v>0.100351636462</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7743,10 +7726,10 @@
         <v>43931</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D9" s="7">
         <v>115918</v>
@@ -7755,13 +7738,13 @@
         <v>0.1055125178708</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7769,10 +7752,10 @@
         <v>43932</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D10" s="7">
         <v>120533</v>
@@ -7781,13 +7764,13 @@
         <v>0.11360000000000001</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7795,10 +7778,10 @@
         <v>43933</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D11" s="7">
         <v>124553</v>
@@ -7807,13 +7790,13 @@
         <v>0.12479999999999999</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7821,10 +7804,10 @@
         <v>43934</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D12" s="7">
         <v>133226</v>
@@ -7833,13 +7816,13 @@
         <v>0.1386</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7847,10 +7830,10 @@
         <v>43935</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D13" s="7">
         <v>146467</v>
@@ -7859,13 +7842,13 @@
         <v>0.1101</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7873,10 +7856,10 @@
         <v>43936</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D14" s="7">
         <v>151810</v>
@@ -7885,13 +7868,13 @@
         <v>0.1105</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7899,10 +7882,10 @@
         <v>43937</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D15" s="7">
         <v>158547</v>
@@ -7911,13 +7894,13 @@
         <v>0.1188</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7925,10 +7908,10 @@
         <v>43938</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D16" s="7">
         <v>169536</v>
@@ -7937,13 +7920,13 @@
         <v>0.10630000000000001</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7951,10 +7934,10 @@
         <v>43939</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D17" s="7">
         <v>176239</v>
@@ -7963,13 +7946,13 @@
         <v>0.1023</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7977,10 +7960,10 @@
         <v>43940</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D18" s="7">
         <v>182710</v>
@@ -7989,13 +7972,13 @@
         <v>9.35E-2</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8003,10 +7986,10 @@
         <v>43941</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D19" s="7">
         <v>190394</v>
@@ -8015,13 +7998,13 @@
         <v>9.7117268401900006E-2</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8029,10 +8012,10 @@
         <v>43942</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D20" s="7">
         <v>205399</v>
@@ -8041,13 +8024,13 @@
         <v>9.4500000000000001E-2</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8055,10 +8038,10 @@
         <v>43943</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D21" s="7">
         <v>216783</v>
@@ -8067,13 +8050,13 @@
         <v>8.5800000000000001E-2</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8081,10 +8064,10 @@
         <v>43944</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D22" s="7">
         <v>225078</v>
@@ -8093,13 +8076,13 @@
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8107,10 +8090,10 @@
         <v>43945</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D23" s="7">
         <v>242547</v>
@@ -8119,13 +8102,13 @@
         <v>7.4399999999999994E-2</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8133,10 +8116,10 @@
         <v>43946</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D24" s="7">
         <v>262816</v>
@@ -8145,13 +8128,13 @@
         <v>6.3700000000000007E-2</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8159,10 +8142,10 @@
         <v>43947</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D25" s="7">
         <v>276021</v>
@@ -8171,13 +8154,13 @@
         <v>6.1199999999999997E-2</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8185,10 +8168,10 @@
         <v>43948</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D26" s="7">
         <v>290517</v>
@@ -8197,13 +8180,13 @@
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8211,10 +8194,10 @@
         <v>43949</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D27" s="7">
         <v>300384</v>
@@ -8223,13 +8206,13 @@
         <v>6.2899999999999998E-2</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8237,10 +8220,10 @@
         <v>43950</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D28" s="7">
         <v>314790</v>
@@ -8249,13 +8232,13 @@
         <v>6.10670666381E-2</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8263,10 +8246,10 @@
         <v>43951</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D29" s="7">
         <v>330300</v>
@@ -8275,13 +8258,13 @@
         <v>5.8381327098900003E-2</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8289,10 +8272,10 @@
         <v>43952</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D30" s="7">
         <v>351775</v>
@@ -8301,13 +8284,13 @@
         <v>5.8799999999999998E-2</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8315,10 +8298,10 @@
         <v>43953</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D31" s="7">
         <v>380648</v>
@@ -8327,13 +8310,13 @@
         <v>5.7299999999999997E-2</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8341,10 +8324,10 @@
         <v>43954</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D32" s="7">
         <v>390560</v>
@@ -8353,13 +8336,13 @@
         <v>6.0400000000000002E-2</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8367,10 +8350,10 @@
         <v>43955</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D33" s="7">
         <v>407398</v>
@@ -8379,13 +8362,13 @@
         <v>6.0199999999999997E-2</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8393,10 +8376,10 @@
         <v>43956</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D34" s="7">
         <v>427210</v>
@@ -8405,13 +8388,13 @@
         <v>5.6754924069199998E-2</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8419,10 +8402,10 @@
         <v>43957</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D35" s="7">
         <v>438938</v>
@@ -8431,13 +8414,13 @@
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8445,10 +8428,10 @@
         <v>43958</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D36" s="7">
         <v>455162</v>
@@ -8457,13 +8440,13 @@
         <v>5.8500000000000003E-2</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8471,10 +8454,10 @@
         <v>43959</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D37" s="7">
         <v>477118</v>
@@ -8483,13 +8466,13 @@
         <v>5.8900000000000001E-2</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8509,13 +8492,13 @@
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8535,13 +8518,13 @@
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8561,13 +8544,13 @@
         <v>6.3711443038399998E-2</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8587,13 +8570,13 @@
         <v>6.9199999999999998E-2</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8613,13 +8596,13 @@
         <v>5.3699999999999998E-2</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8639,13 +8622,13 @@
         <v>5.0299999999999997E-2</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8665,13 +8648,13 @@
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8861,22 +8844,22 @@
         <v>43974</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D52" s="7">
         <v>870935</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H52" s="7">
         <v>27495</v>
@@ -9052,13 +9035,13 @@
         <v>1054793</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H59" s="7">
         <v>26265</v>
@@ -10394,41 +10377,55 @@
       <c r="A111" s="6">
         <v>44033</v>
       </c>
-      <c r="B111" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>269</v>
+      <c r="B111" s="7">
+        <v>3104148</v>
+      </c>
+      <c r="C111" s="7">
+        <v>227696</v>
       </c>
       <c r="D111" s="7">
         <v>3331844</v>
       </c>
-      <c r="E111" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="B113" s="13"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
-    </row>
-    <row r="114" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E111" s="16">
+        <v>0.14180000000000001</v>
+      </c>
+      <c r="F111" s="7">
+        <v>65993</v>
+      </c>
+      <c r="G111" s="7">
+        <v>765</v>
+      </c>
+      <c r="H111" s="7">
+        <v>66758</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
+        <v>44034</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D112" s="7">
+        <v>3396677</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
         <v>285</v>
       </c>
@@ -10440,11 +10437,23 @@
       <c r="G114" s="13"/>
       <c r="H114" s="13"/>
     </row>
+    <row r="115" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B115" s="13"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A113:H113"/>
     <mergeCell ref="A114:H114"/>
+    <mergeCell ref="A115:H115"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10457,8 +10466,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10469,45 +10478,45 @@
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B3" s="7">
-        <v>114915</v>
+        <v>115278</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B4" s="7">
-        <v>3216929</v>
+        <v>3281399</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B5" s="7">
-        <v>3331844</v>
+        <v>3396677</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B7" s="13"/>
     </row>
@@ -10527,8 +10536,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10539,37 +10548,37 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B3" s="7">
-        <v>226323</v>
+        <v>227696</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B4" s="7">
-        <v>8562</v>
+        <v>8737</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B6" s="13"/>
     </row>
@@ -10589,8 +10598,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10601,61 +10610,61 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B3" s="8">
-        <v>10848</v>
+        <v>10893</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B4" s="8">
-        <v>55263</v>
+        <v>56155</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B5" s="8">
-        <v>11461</v>
+        <v>10520</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B6" s="8">
-        <v>1088</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B7" s="8">
-        <v>5096</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B9" s="13"/>
     </row>
@@ -10671,11 +10680,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -10688,20 +10697,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -11903,17 +11912,28 @@
         <v>10848</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="B113" s="13"/>
-      <c r="C113" s="13"/>
+    <row r="112" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>110</v>
+      </c>
+      <c r="B112" s="6">
+        <v>44034</v>
+      </c>
+      <c r="C112" s="8">
+        <v>10893</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="B114" s="13"/>
+      <c r="C114" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A114:C114"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -11926,7 +11946,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -11939,176 +11959,176 @@
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B3" s="10">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C3" s="18">
         <f>B3/B$16</f>
-        <v>4.4396280500594281E-3</v>
+        <v>4.3936731107205628E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B4" s="10">
-        <v>546</v>
+        <v>563</v>
       </c>
       <c r="C4" s="18">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
-        <v>1.9086904845137385E-2</v>
+        <v>1.9027984317966744E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B5" s="10">
-        <v>1424</v>
+        <v>1464</v>
       </c>
       <c r="C5" s="18">
         <f t="shared" si="0"/>
-        <v>4.9779766482556109E-2</v>
+        <v>4.9479518723806952E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B6" s="10">
-        <v>5422</v>
+        <v>5602</v>
       </c>
       <c r="C6" s="18">
         <f t="shared" si="0"/>
-        <v>0.18954065580647417</v>
+        <v>0.18933351358658915</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B7" s="10">
-        <v>5375</v>
+        <v>5594</v>
       </c>
       <c r="C7" s="18">
         <f t="shared" si="0"/>
-        <v>0.18789764385094035</v>
+        <v>0.18906313370285252</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B8" s="10">
-        <v>5080</v>
+        <v>5252</v>
       </c>
       <c r="C8" s="18">
         <f t="shared" si="0"/>
-        <v>0.17758512200237711</v>
+        <v>0.17750439367311072</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B9" s="10">
-        <v>4698</v>
+        <v>4878</v>
       </c>
       <c r="C9" s="18">
         <f t="shared" si="0"/>
-        <v>0.16423128015101726</v>
+        <v>0.16486413410842232</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B10" s="10">
-        <v>1868</v>
+        <v>1945</v>
       </c>
       <c r="C10" s="18">
         <f t="shared" si="0"/>
-        <v>6.530098580717332E-2</v>
+        <v>6.5736109233473033E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B11" s="10">
-        <v>1376</v>
+        <v>1419</v>
       </c>
       <c r="C11" s="18">
         <f t="shared" si="0"/>
-        <v>4.8101796825840731E-2</v>
+        <v>4.7958631877788295E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B12" s="10">
-        <v>865</v>
+        <v>893</v>
       </c>
       <c r="C12" s="18">
         <f t="shared" si="0"/>
-        <v>3.023841152205831E-2</v>
+        <v>3.0181154522103557E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B13" s="10">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="C13" s="18">
         <f t="shared" si="0"/>
-        <v>2.2337971055023421E-2</v>
+        <v>2.2069758010004055E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B14" s="10">
-        <v>1166</v>
+        <v>1175</v>
       </c>
       <c r="C14" s="18">
         <f t="shared" si="0"/>
-        <v>4.076067957771097E-2</v>
+        <v>3.9712045423820466E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B15" s="10">
         <v>20</v>
       </c>
       <c r="C15" s="18">
         <f t="shared" si="0"/>
-        <v>6.9915402363140598E-4</v>
+        <v>6.7594970934162495E-4</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -12116,7 +12136,7 @@
         <v>258</v>
       </c>
       <c r="B16" s="10">
-        <v>28606</v>
+        <v>29588</v>
       </c>
       <c r="C16" s="18">
         <f t="shared" si="0"/>
@@ -12125,14 +12145,14 @@
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
